--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\lab1\video adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8258AF7-FA8E-462D-A102-B495395F3F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE3EFE7-6B85-473F-AB60-D43ADB8684C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulcast" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="179">
   <si>
     <t>width</t>
   </si>
@@ -377,25 +377,13 @@
     <t>89654.000</t>
   </si>
   <si>
-    <t>227788.000</t>
-  </si>
-  <si>
     <t>4555.760</t>
   </si>
   <si>
     <t>4793.460</t>
   </si>
   <si>
-    <t>239673.000</t>
-  </si>
-  <si>
     <t>4510.520</t>
-  </si>
-  <si>
-    <t>225526.000</t>
-  </si>
-  <si>
-    <t>245312.000</t>
   </si>
   <si>
     <t>4906.240</t>
@@ -404,73 +392,37 @@
     <t>4310.600</t>
   </si>
   <si>
-    <t>215530.000</t>
-  </si>
-  <si>
     <t>4983.520</t>
-  </si>
-  <si>
-    <t>249176.000</t>
   </si>
   <si>
     <t>4029.520</t>
   </si>
   <si>
-    <t>201476.000</t>
-  </si>
-  <si>
     <t>5177.460</t>
-  </si>
-  <si>
-    <t>258873.000</t>
   </si>
   <si>
     <t>14634.900</t>
   </si>
   <si>
-    <t>1463490.000</t>
-  </si>
-  <si>
     <t>14546.700</t>
-  </si>
-  <si>
-    <t>1454670.000</t>
   </si>
   <si>
     <t>14447.660</t>
   </si>
   <si>
-    <t>1444766.000</t>
-  </si>
-  <si>
     <t>14278.050</t>
-  </si>
-  <si>
-    <t>1427805.000</t>
   </si>
   <si>
     <t>13558.480</t>
   </si>
   <si>
-    <t>1355848.000</t>
-  </si>
-  <si>
     <t>13869.840</t>
-  </si>
-  <si>
-    <t>1386984.000</t>
   </si>
   <si>
     <t>14110.650</t>
   </si>
   <si>
-    <t>1411065.000</t>
-  </si>
-  <si>
     <t>14312.650</t>
-  </si>
-  <si>
-    <t>1431265.000</t>
   </si>
   <si>
     <t>13001.490</t>
@@ -598,6 +550,30 @@
   <si>
     <t>Scalable-City</t>
   </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Total-Time</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
 </sst>
 </file>
 
@@ -650,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,6 +658,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,6 +668,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,6 +692,2287 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Transcoding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Requisites [in Seconds]</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Transcoding!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Transcoding!$U$2:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2879.7159999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2541.5659999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2535.1610000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2499.4459999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-339E-437F-87FA-BD7B5EF10AB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Transcoding!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Transcoding!$Q$2:$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Transcoding!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2342.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2368.6619999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2359.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2231.5619999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-339E-437F-87FA-BD7B5EF10AB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1077938975"/>
+        <c:axId val="1077945631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1077938975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077945631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1077945631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077938975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Transcoding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AR$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transcoding-Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$AR$51:$AR$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$AS$51:$AS$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17307.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13025.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9931.1808000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7623.5856000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B430-4EF4-8992-B0130B350D96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AT$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transcoding-City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$AU$51:$AU$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18699.326400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13269.292800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9508.4495999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6924.6191999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B430-4EF4-8992-B0130B350D96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1659144479"/>
+        <c:axId val="1659145727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1659144479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1659145727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1659145727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1659144479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Scalable</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AR$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scalable-Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$AR$57:$AR$60</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$AS$57:$AS$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27307.065600000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24105.748800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15069.763199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11391.624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA02-474C-8BEF-FEF72FC7DD06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AT$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scalable-City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$AU$57:$AU$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31640.731200000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27735.455999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15546.566400000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11175.0864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA02-474C-8BEF-FEF72FC7DD06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1552303823"/>
+        <c:axId val="1552325455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1552303823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552325455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1552325455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552303823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Debit Rate Utilisation [in kbps]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AR$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulcast-Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plots!$AR$5:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plots!$AS$45:$AS$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17608.896000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13218.916800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10001.8608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7641.7584000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF07-48BB-9BCB-307FBFC21618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AR$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transcoding-Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plots!$AR$5:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plots!$AS$51:$AS$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17307.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13025.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9931.1808000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7623.5856000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF07-48BB-9BCB-307FBFC21618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AR$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scalable-Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plots!$AR$5:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plots!$AS$57:$AS$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27307.065600000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24105.748800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15069.763199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11391.624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BF07-48BB-9BCB-307FBFC21618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AT$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulcast-City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plots!$AR$5:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plots!$AU$45:$AU$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19310.980800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13666.612800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9744.4608000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7076.8944000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BF07-48BB-9BCB-307FBFC21618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AT$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transcoding-City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plots!$AR$5:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plots!$AU$51:$AU$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18699.326400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13269.292800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9508.4495999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6924.6191999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BF07-48BB-9BCB-307FBFC21618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AT$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scalable-City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plots!$AR$5:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plots!$AU$57:$AU$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31640.731200000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27735.455999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15546.566400000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11175.0864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BF07-48BB-9BCB-307FBFC21618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1659146975"/>
+        <c:axId val="1659152799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1659146975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="26"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1659152799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1659152799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1659146975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1502,7 +3766,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2286,7 +4550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3072,7 +5336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3858,7 +6122,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4642,7 +6906,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5436,7 +7700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6586,6 +8850,408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Simulcast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AR$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulcast-Soccer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$AR$45:$AR$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$AS$45:$AS$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17608.896000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13218.916800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10001.8608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7641.7584000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-454A-4B74-9B72-617077A0F184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$AT$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulcast-City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$AU$45:$AU$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19310.980800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13666.612800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9744.4608000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7076.8944000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-454A-4B74-9B72-617077A0F184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1561770111"/>
+        <c:axId val="1561765535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1561770111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1561765535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1561765535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1561770111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6593,6 +9259,123 @@
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6866,7 +9649,1596 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9879,14 +14251,14 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -9897,18 +14269,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9950,7 +14320,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10005,7 +14375,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10025,7 +14395,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10058,7 +14428,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -10222,7 +14592,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10249,18 +14619,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10317,6 +14685,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10326,7 +14695,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10358,9 +14727,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10370,11 +14748,1051 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>655543</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613594CE-B426-2628-8564-99FA350E5B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10623,6 +16041,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>756957</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>201786</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122583</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D5B2B7-C821-9A24-57F6-A4DFE976B5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>469446</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F846D841-5184-9D4E-3A10-BC8971C0E96D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>700767</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>129267</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5161A3D-C5EB-D651-0524-E99133C7FE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>406976</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>90055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4113D0C2-5A3E-17D8-A782-51B90A54A66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10896,8 +16458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10918,32 +16480,34 @@
     <col min="17" max="17" width="17.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="28.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="28.5703125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="L1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11282,16 +16846,16 @@
       <c r="I8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="L8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -11491,17 +17055,17 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="K13" s="7">
         <v>100</v>
       </c>
@@ -11591,13 +17155,25 @@
         <v>3</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -11642,16 +17218,26 @@
         <f>SUM(E15,O10,E39)</f>
         <v>4023121</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" s="10">
+        <f>SUM(F15,P10,F39)</f>
+        <v>19310.980800000001</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U16" s="10">
+        <f>SUM(F3,P3,F39)</f>
+        <v>17608.896000000001</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -11693,8 +17279,22 @@
         <f t="shared" ref="O17:O19" si="0">SUM(E16,O11,E40)</f>
         <v>2847211</v>
       </c>
+      <c r="Q17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" ref="R17:R19" si="1">SUM(F16,P11,F40)</f>
+        <v>13666.612800000001</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" ref="U17:U19" si="2">SUM(F4,P4,F40)</f>
+        <v>13218.916800000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100</v>
       </c>
@@ -11736,8 +17336,22 @@
         <f t="shared" si="0"/>
         <v>2030096</v>
       </c>
+      <c r="Q18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="1"/>
+        <v>9744.4608000000007</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="2"/>
+        <v>10001.8608</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>100</v>
       </c>
@@ -11779,8 +17393,22 @@
         <f t="shared" si="0"/>
         <v>1474353</v>
       </c>
+      <c r="Q19" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="1"/>
+        <v>7076.8944000000001</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="2"/>
+        <v>7641.7584000000006</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>100</v>
       </c>
@@ -11809,7 +17437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -11838,7 +17466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -11867,7 +17495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>100</v>
       </c>
@@ -11896,20 +17524,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -11938,7 +17566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>50</v>
       </c>
@@ -11967,7 +17595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>50</v>
       </c>
@@ -11996,7 +17624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>50</v>
       </c>
@@ -12025,7 +17653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>50</v>
       </c>
@@ -12054,7 +17682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>50</v>
       </c>
@@ -12083,7 +17711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>50</v>
       </c>
@@ -12185,17 +17813,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="A37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -12488,12 +18116,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="L8:S8"/>
-    <mergeCell ref="P16:W16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A13:I13"/>
   </mergeCells>
@@ -12505,10 +18132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E761306-A9C8-48CD-A5B2-6145207775A5}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12519,34 +18146,63 @@
     <col min="7" max="7" width="33.7109375" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -12589,8 +18245,36 @@
         <f>SUM(E10,E24,E38)</f>
         <v>3895693</v>
       </c>
+      <c r="Q2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="10">
+        <f>SUM(I3,I17,I31)/1000</f>
+        <v>2342.54</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" s="10">
+        <f>SUM(I10,I24,I38)/1000</f>
+        <v>2879.7159999999999</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="10">
+        <f>SUM(F3,F17,F31)</f>
+        <v>17307.96</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" s="10">
+        <f>SUM(F10,F24,F38)</f>
+        <v>18699.326400000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>100</v>
       </c>
@@ -12615,8 +18299,8 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
+      <c r="I3" s="10">
+        <v>683487</v>
       </c>
       <c r="K3" s="9">
         <v>22</v>
@@ -12633,8 +18317,36 @@
         <f t="shared" ref="O3:O5" si="1">SUM(E11,E25,E39)</f>
         <v>2764436</v>
       </c>
+      <c r="Q3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R5" si="2">SUM(I4,I18,I32)/1000</f>
+        <v>2368.6619999999998</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U5" si="3">SUM(I11,I25,I39)/1000</f>
+        <v>2541.5659999999998</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" ref="X3:X5" si="4">SUM(F4,F18,F32)</f>
+        <v>13025.88</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" ref="AA3:AA5" si="5">SUM(F11,F25,F39)</f>
+        <v>13269.292800000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -12659,8 +18371,8 @@
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
+      <c r="I4" s="10">
+        <v>732071</v>
       </c>
       <c r="K4" s="9">
         <v>24</v>
@@ -12677,8 +18389,36 @@
         <f t="shared" si="1"/>
         <v>1980927</v>
       </c>
+      <c r="Q4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="2"/>
+        <v>2359.77</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="3"/>
+        <v>2535.1610000000001</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="X4" s="10">
+        <f t="shared" si="4"/>
+        <v>9931.1808000000001</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" si="5"/>
+        <v>9508.4495999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -12703,8 +18443,8 @@
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
+      <c r="I5" s="10">
+        <v>757256</v>
       </c>
       <c r="K5" s="9">
         <v>26</v>
@@ -12721,8 +18461,36 @@
         <f t="shared" si="1"/>
         <v>1442629</v>
       </c>
+      <c r="Q5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="2"/>
+        <v>2231.5619999999999</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="3"/>
+        <v>2499.4459999999999</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="X5" s="10">
+        <f t="shared" si="4"/>
+        <v>7623.5856000000003</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="5"/>
+        <v>6924.6191999999992</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -12747,27 +18515,27 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="I6" s="10">
+        <v>674238</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>100</v>
       </c>
@@ -12796,7 +18564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>100</v>
       </c>
@@ -12821,11 +18589,11 @@
       <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
+      <c r="I10" s="1">
+        <v>1176553</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>100</v>
       </c>
@@ -12850,11 +18618,11 @@
       <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
+      <c r="I11" s="1">
+        <v>841584</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>100</v>
       </c>
@@ -12879,11 +18647,11 @@
       <c r="H12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
+      <c r="I12" s="1">
+        <v>841219</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>100</v>
       </c>
@@ -12908,27 +18676,27 @@
       <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
+      <c r="I13" s="1">
+        <v>812768</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>100</v>
       </c>
@@ -12980,10 +18748,10 @@
         <v>37.469900000000003</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1431265</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -13009,10 +18777,10 @@
         <v>36.552199999999999</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1411065</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -13038,10 +18806,10 @@
         <v>35.628700000000002</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1386984</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -13067,10 +18835,10 @@
         <v>34.513100000000001</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1355848</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -13078,16 +18846,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -13141,10 +18909,10 @@
         <v>36.393999999999998</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1463490</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -13170,10 +18938,10 @@
         <v>35.631599999999999</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1454670</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -13199,10 +18967,10 @@
         <v>34.7742</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1444766</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -13228,23 +18996,23 @@
         <v>33.674399999999999</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1427805</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="C29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
@@ -13295,10 +19063,10 @@
         <v>40.703699999999998</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="4" t="s">
         <v>113</v>
+      </c>
+      <c r="I31" s="4">
+        <v>227788</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -13324,10 +19092,10 @@
         <v>39.432099999999998</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="I32" s="4">
+        <v>225526</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -13353,10 +19121,10 @@
         <v>38.104100000000003</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="I33" s="4">
+        <v>215530</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -13382,10 +19150,10 @@
         <v>36.729199999999999</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="I34" s="4">
+        <v>201476</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -13393,16 +19161,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -13456,10 +19224,10 @@
         <v>39.929099999999998</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="I38" s="4">
+        <v>239673</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -13485,10 +19253,10 @@
         <v>38.752800000000001</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="I39" s="4">
+        <v>245312</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -13514,10 +19282,10 @@
         <v>37.462000000000003</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="I40" s="4">
+        <v>249176</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -13543,10 +19311,10 @@
         <v>36.1188</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="I41" s="4">
+        <v>258873</v>
       </c>
     </row>
   </sheetData>
@@ -13560,15 +19328,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B109FA-6ABD-4204-9BF8-53335812A369}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13581,34 +19350,49 @@
     <col min="9" max="9" width="61" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
-      <c r="C1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -13651,8 +19435,22 @@
         <f>SUM(E10,E24,E38)</f>
         <v>6591819</v>
       </c>
+      <c r="Q2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="10">
+        <f>SUM(F3,F17,F31)</f>
+        <v>27307.065600000002</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" s="10">
+        <f>SUM(F10,F24,F38)</f>
+        <v>31640.731200000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>100</v>
       </c>
@@ -13668,17 +19466,17 @@
       <c r="E3" s="6">
         <v>3493807</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>16770.2736</v>
       </c>
       <c r="G3" s="4">
         <v>41.118600000000001</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K3" s="9">
         <v>22</v>
@@ -13695,8 +19493,22 @@
         <f t="shared" ref="O3:O5" si="0">SUM(E11,E25,E39)</f>
         <v>5778220</v>
       </c>
+      <c r="Q3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R5" si="1">SUM(F4,F18,F32)</f>
+        <v>24105.748800000001</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U5" si="2">SUM(F11,F25,F39)</f>
+        <v>27735.455999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -13719,16 +19531,16 @@
         <v>41.095999999999997</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K4" s="9">
         <v>24</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" ref="L4:L5" si="1">SUM(E5,E19,E33)</f>
+        <f t="shared" ref="L4:L5" si="3">SUM(E5,E19,E33)</f>
         <v>3139534</v>
       </c>
       <c r="M4" s="9"/>
@@ -13739,8 +19551,22 @@
         <f t="shared" si="0"/>
         <v>3238868</v>
       </c>
+      <c r="Q4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="1"/>
+        <v>15069.763199999999</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="2"/>
+        <v>15546.566400000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -13763,16 +19589,16 @@
         <v>38.739899999999999</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K5" s="9">
         <v>26</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2373255</v>
       </c>
       <c r="M5" s="9"/>
@@ -13783,8 +19609,22 @@
         <f t="shared" si="0"/>
         <v>2328143</v>
       </c>
+      <c r="Q5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="1"/>
+        <v>11391.624</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="2"/>
+        <v>11175.0864</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -13807,29 +19647,29 @@
         <v>37.717599999999997</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>100</v>
       </c>
@@ -13858,7 +19698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>100</v>
       </c>
@@ -13881,13 +19721,13 @@
         <v>40.218000000000004</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>100</v>
       </c>
@@ -13910,13 +19750,13 @@
         <v>40.199100000000001</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>100</v>
       </c>
@@ -13939,13 +19779,13 @@
         <v>37.498699999999999</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>100</v>
       </c>
@@ -13968,29 +19808,29 @@
         <v>36.374400000000001</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>100</v>
       </c>
@@ -14042,11 +19882,11 @@
         <v>38.807699999999997</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" ref="H17:I20" si="2">H3</f>
+        <f t="shared" ref="H17:I20" si="4">H3</f>
         <v>13001.490</v>
       </c>
       <c r="I17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1300149.000</v>
       </c>
     </row>
@@ -14073,11 +19913,11 @@
         <v>37.884300000000003</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12891.580</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1289158.000</v>
       </c>
     </row>
@@ -14104,11 +19944,11 @@
         <v>37.028100000000002</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12612.600</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1261260.000</v>
       </c>
     </row>
@@ -14135,11 +19975,11 @@
         <v>36.125</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12193.550</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1219355.000</v>
       </c>
     </row>
@@ -14148,16 +19988,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -14211,11 +20051,11 @@
         <v>37.520200000000003</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" ref="H24:I27" si="3">H10</f>
+        <f t="shared" ref="H24:I27" si="5">H10</f>
         <v>12900.430</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1290043.000</v>
       </c>
     </row>
@@ -14242,11 +20082,11 @@
         <v>36.570599999999999</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12365.690</v>
       </c>
       <c r="I25" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1236569.000</v>
       </c>
     </row>
@@ -14273,11 +20113,11 @@
         <v>35.786099999999998</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11824.600</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1182460.000</v>
       </c>
     </row>
@@ -14304,25 +20144,25 @@
         <v>35.007100000000001</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11426.930</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1142693.000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="C29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
@@ -14373,11 +20213,11 @@
         <v>41.925600000000003</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f t="shared" ref="H31:I34" si="4">H17</f>
+        <f t="shared" ref="H31:I34" si="6">H17</f>
         <v>13001.490</v>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1300149.000</v>
       </c>
     </row>
@@ -14404,11 +20244,11 @@
         <v>40.6877</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12891.580</v>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1289158.000</v>
       </c>
     </row>
@@ -14435,11 +20275,11 @@
         <v>39.434899999999999</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12612.600</v>
       </c>
       <c r="I33" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1261260.000</v>
       </c>
     </row>
@@ -14466,11 +20306,11 @@
         <v>38.150399999999998</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12193.550</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1219355.000</v>
       </c>
     </row>
@@ -14479,16 +20319,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -14542,11 +20382,11 @@
         <v>41.167099999999998</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" ref="H38:I41" si="5">H24</f>
+        <f t="shared" ref="H38:I41" si="7">H24</f>
         <v>12900.430</v>
       </c>
       <c r="I38" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1290043.000</v>
       </c>
     </row>
@@ -14573,11 +20413,11 @@
         <v>40.0473</v>
       </c>
       <c r="H39" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12365.690</v>
       </c>
       <c r="I39" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1236569.000</v>
       </c>
     </row>
@@ -14604,11 +20444,11 @@
         <v>38.952599999999997</v>
       </c>
       <c r="H40" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11824.600</v>
       </c>
       <c r="I40" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1182460.000</v>
       </c>
     </row>
@@ -14635,11 +20475,11 @@
         <v>37.849499999999999</v>
       </c>
       <c r="H41" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11426.930</v>
       </c>
       <c r="I41" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1142693.000</v>
       </c>
     </row>
@@ -14661,40 +20501,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA82835-2AB2-44EA-8C7B-71F86F3AB334}">
   <dimension ref="AI3:AV159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BI40" sqref="BI40"/>
+    <sheetView topLeftCell="AZ50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN53" sqref="BN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="44" max="44" width="21.7109375" customWidth="1"/>
     <col min="45" max="45" width="14" customWidth="1"/>
+    <col min="46" max="46" width="22.42578125" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" customWidth="1"/>
     <col min="48" max="48" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="35:48" x14ac:dyDescent="0.25">
-      <c r="AR3" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS3" s="10"/>
+      <c r="AR3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS3" s="11"/>
       <c r="AT3" s="9"/>
-      <c r="AU3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV3" s="10"/>
+      <c r="AU3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="11"/>
     </row>
     <row r="4" spans="35:48" x14ac:dyDescent="0.25">
       <c r="AR4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AT4" s="9"/>
       <c r="AU4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="35:48" x14ac:dyDescent="0.25">
@@ -14759,31 +20602,31 @@
     </row>
     <row r="9" spans="35:48" x14ac:dyDescent="0.25">
       <c r="AI9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR9" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS9" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS9" s="11"/>
       <c r="AT9" s="9"/>
-      <c r="AU9" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV9" s="10"/>
+      <c r="AU9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV9" s="11"/>
     </row>
     <row r="10" spans="35:48" x14ac:dyDescent="0.25">
       <c r="AR10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="35:48" x14ac:dyDescent="0.25">
@@ -14847,29 +20690,29 @@
       </c>
     </row>
     <row r="15" spans="35:48" x14ac:dyDescent="0.25">
-      <c r="AR15" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS15" s="10"/>
+      <c r="AR15" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS15" s="11"/>
       <c r="AT15" s="9"/>
-      <c r="AU15" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV15" s="10"/>
+      <c r="AU15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV15" s="11"/>
     </row>
     <row r="16" spans="35:48" x14ac:dyDescent="0.25">
       <c r="AR16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="44:48" x14ac:dyDescent="0.25">
@@ -14932,9 +20775,225 @@
         <v>2328143</v>
       </c>
     </row>
+    <row r="44" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR44" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS44" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT44" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU44" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR45" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS45" s="10">
+        <v>17608.896000000001</v>
+      </c>
+      <c r="AT45" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU45" s="10">
+        <v>19310.980800000001</v>
+      </c>
+    </row>
+    <row r="46" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR46" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS46" s="10">
+        <v>13218.916800000001</v>
+      </c>
+      <c r="AT46" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU46" s="10">
+        <v>13666.612800000001</v>
+      </c>
+    </row>
+    <row r="47" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR47" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS47" s="10">
+        <v>10001.8608</v>
+      </c>
+      <c r="AT47" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU47" s="10">
+        <v>9744.4608000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR48" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS48" s="10">
+        <v>7641.7584000000006</v>
+      </c>
+      <c r="AT48" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU48" s="10">
+        <v>7076.8944000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+    </row>
+    <row r="50" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR50" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT50" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU50" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR51" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS51" s="10">
+        <v>17307.96</v>
+      </c>
+      <c r="AT51" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU51" s="10">
+        <v>18699.326400000002</v>
+      </c>
+    </row>
+    <row r="52" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR52" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS52" s="10">
+        <v>13025.88</v>
+      </c>
+      <c r="AT52" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU52" s="10">
+        <v>13269.292800000001</v>
+      </c>
+    </row>
+    <row r="53" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR53" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS53" s="10">
+        <v>9931.1808000000001</v>
+      </c>
+      <c r="AT53" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU53" s="10">
+        <v>9508.4495999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR54" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS54" s="10">
+        <v>7623.5856000000003</v>
+      </c>
+      <c r="AT54" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU54" s="10">
+        <v>6924.6191999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR56" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS56" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT56" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU56" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR57" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS57" s="10">
+        <v>27307.065600000002</v>
+      </c>
+      <c r="AT57" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU57" s="10">
+        <v>31640.731200000002</v>
+      </c>
+    </row>
+    <row r="58" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR58" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS58" s="10">
+        <v>24105.748800000001</v>
+      </c>
+      <c r="AT58" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU58" s="10">
+        <v>27735.455999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR59" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS59" s="10">
+        <v>15069.763199999999</v>
+      </c>
+      <c r="AT59" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU59" s="10">
+        <v>15546.566400000002</v>
+      </c>
+    </row>
+    <row r="60" spans="44:47" x14ac:dyDescent="0.25">
+      <c r="AR60" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS60" s="10">
+        <v>11391.624</v>
+      </c>
+      <c r="AT60" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU60" s="10">
+        <v>11175.0864</v>
+      </c>
+    </row>
     <row r="159" spans="42:42" x14ac:dyDescent="0.25">
       <c r="AP159" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -14947,6 +21006,7 @@
     <mergeCell ref="AR15:AS15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>